--- a/T- and Chi2 test tables/just_img_means_by_binary_target.xlsx
+++ b/T- and Chi2 test tables/just_img_means_by_binary_target.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
   <si>
     <t>variable</t>
   </si>
@@ -37,39 +37,42 @@
     <t>asking_for_eng</t>
   </si>
   <si>
+    <t>black</t>
+  </si>
+  <si>
     <t>red</t>
   </si>
   <si>
     <t>nothing</t>
   </si>
   <si>
-    <t>black</t>
+    <t>raw_length</t>
+  </si>
+  <si>
+    <t>is_weekday</t>
+  </si>
+  <si>
+    <t>white</t>
+  </si>
+  <si>
+    <t>orange</t>
+  </si>
+  <si>
+    <t>person</t>
+  </si>
+  <si>
+    <t>chair</t>
   </si>
   <si>
     <t>tie</t>
   </si>
   <si>
-    <t>is_weekday</t>
-  </si>
-  <si>
-    <t>white</t>
-  </si>
-  <si>
-    <t>orange</t>
-  </si>
-  <si>
-    <t>person</t>
-  </si>
-  <si>
-    <t>raw_length</t>
+    <t>cup</t>
   </si>
   <si>
     <t>cellphone</t>
   </si>
   <si>
-    <t>chair</t>
-  </si>
-  <si>
     <t>bottle</t>
   </si>
   <si>
@@ -82,10 +85,37 @@
     <t>laptop</t>
   </si>
   <si>
-    <t>cup</t>
-  </si>
-  <si>
     <t>pottedplant</t>
+  </si>
+  <si>
+    <t>has_emoji</t>
+  </si>
+  <si>
+    <t>gray</t>
+  </si>
+  <si>
+    <t>yellow</t>
+  </si>
+  <si>
+    <t>green</t>
+  </si>
+  <si>
+    <t>car</t>
+  </si>
+  <si>
+    <t>cyan</t>
+  </si>
+  <si>
+    <t>blue</t>
+  </si>
+  <si>
+    <t>violet</t>
+  </si>
+  <si>
+    <t>pink</t>
+  </si>
+  <si>
+    <t>box_areas</t>
   </si>
 </sst>
 </file>
@@ -443,7 +473,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G19"/>
+  <dimension ref="A1:G29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -500,16 +530,16 @@
         <v>7</v>
       </c>
       <c r="C3">
-        <v>0.03564037521464007</v>
+        <v>0.1579044170034035</v>
       </c>
       <c r="D3">
-        <v>0.04148549235653681</v>
+        <v>0.1722462469618906</v>
       </c>
       <c r="E3">
         <v>1</v>
       </c>
       <c r="F3">
-        <v>0.008</v>
+        <v>0</v>
       </c>
       <c r="G3">
         <v>1</v>
@@ -523,16 +553,16 @@
         <v>8</v>
       </c>
       <c r="C4">
-        <v>0.2840832254699303</v>
+        <v>0.03564037521464007</v>
       </c>
       <c r="D4">
-        <v>0.3196125907990315</v>
+        <v>0.04148549235653681</v>
       </c>
       <c r="E4">
         <v>1</v>
       </c>
       <c r="F4">
-        <v>0</v>
+        <v>0.008</v>
       </c>
       <c r="G4">
         <v>1</v>
@@ -546,10 +576,10 @@
         <v>9</v>
       </c>
       <c r="C5">
-        <v>0.1579044170034035</v>
+        <v>0.2840832254699303</v>
       </c>
       <c r="D5">
-        <v>0.1722462469618906</v>
+        <v>0.3196125907990315</v>
       </c>
       <c r="E5">
         <v>1</v>
@@ -569,16 +599,16 @@
         <v>10</v>
       </c>
       <c r="C6">
-        <v>0.07856963468114291</v>
+        <v>124.2373703224311</v>
       </c>
       <c r="D6">
-        <v>0.06618240516545601</v>
+        <v>117.6949152542373</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.016</v>
+        <v>0</v>
       </c>
       <c r="G6">
         <v>1</v>
@@ -684,16 +714,16 @@
         <v>15</v>
       </c>
       <c r="C11">
-        <v>124.2373703224311</v>
+        <v>0.05967583022622337</v>
       </c>
       <c r="D11">
-        <v>117.6949152542373</v>
+        <v>0.04923325262308313</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="G11">
         <v>1</v>
@@ -707,16 +737,16 @@
         <v>16</v>
       </c>
       <c r="C12">
-        <v>0.04661630894654483</v>
+        <v>0.07856963468114291</v>
       </c>
       <c r="D12">
-        <v>0.02461662631154157</v>
+        <v>0.06618240516545601</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>0</v>
+        <v>0.016</v>
       </c>
       <c r="G12">
         <v>1</v>
@@ -730,16 +760,16 @@
         <v>17</v>
       </c>
       <c r="C13">
-        <v>0.05967583022622337</v>
+        <v>0.03987404130363387</v>
       </c>
       <c r="D13">
-        <v>0.04923325262308313</v>
+        <v>0.02300242130750605</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="G13">
         <v>1</v>
@@ -753,16 +783,16 @@
         <v>18</v>
       </c>
       <c r="C14">
-        <v>0.02637018719935089</v>
+        <v>0.04661630894654483</v>
       </c>
       <c r="D14">
-        <v>0.01815980629539951</v>
+        <v>0.02461662631154157</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>0.003</v>
+        <v>0</v>
       </c>
       <c r="G14">
         <v>1</v>
@@ -776,16 +806,16 @@
         <v>19</v>
       </c>
       <c r="C15">
-        <v>0.2298166644128045</v>
+        <v>0.02637018719935089</v>
       </c>
       <c r="D15">
-        <v>0.2017756255044391</v>
+        <v>0.01815980629539951</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.001</v>
+        <v>0.003</v>
       </c>
       <c r="G15">
         <v>1</v>
@@ -799,16 +829,16 @@
         <v>20</v>
       </c>
       <c r="C16">
-        <v>0.2172207947761915</v>
+        <v>0.2298166644128045</v>
       </c>
       <c r="D16">
-        <v>0.1476997578692494</v>
+        <v>0.2017756255044391</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0</v>
+        <v>0.001</v>
       </c>
       <c r="G16">
         <v>1</v>
@@ -822,10 +852,10 @@
         <v>21</v>
       </c>
       <c r="C17">
-        <v>0.03786488418368333</v>
+        <v>0.2172207947761915</v>
       </c>
       <c r="D17">
-        <v>0.01775625504439064</v>
+        <v>0.1476997578692494</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -845,10 +875,10 @@
         <v>22</v>
       </c>
       <c r="C18">
-        <v>0.03987404130363387</v>
+        <v>0.03786488418368333</v>
       </c>
       <c r="D18">
-        <v>0.02300242130750605</v>
+        <v>0.01775625504439064</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -881,6 +911,236 @@
       </c>
       <c r="G19">
         <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20" s="1">
+        <v>18</v>
+      </c>
+      <c r="B20" t="s">
+        <v>24</v>
+      </c>
+      <c r="C20">
+        <v>0.05453702451558063</v>
+      </c>
+      <c r="D20">
+        <v>0.05932203389830509</v>
+      </c>
+      <c r="E20">
+        <v>1</v>
+      </c>
+      <c r="F20">
+        <v>0.324</v>
+      </c>
+      <c r="G20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21" s="1">
+        <v>19</v>
+      </c>
+      <c r="B21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21">
+        <v>0.1137812542141308</v>
+      </c>
+      <c r="D21">
+        <v>0.1159889083760989</v>
+      </c>
+      <c r="E21">
+        <v>1</v>
+      </c>
+      <c r="F21">
+        <v>0.492</v>
+      </c>
+      <c r="G21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22" s="1">
+        <v>20</v>
+      </c>
+      <c r="B22" t="s">
+        <v>26</v>
+      </c>
+      <c r="C22">
+        <v>0.02098360367705166</v>
+      </c>
+      <c r="D22">
+        <v>0.02170181661967696</v>
+      </c>
+      <c r="E22">
+        <v>1</v>
+      </c>
+      <c r="F22">
+        <v>0.622</v>
+      </c>
+      <c r="G22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="A23" s="1">
+        <v>21</v>
+      </c>
+      <c r="B23" t="s">
+        <v>27</v>
+      </c>
+      <c r="C23">
+        <v>0.02581546804978784</v>
+      </c>
+      <c r="D23">
+        <v>0.02630530407987546</v>
+      </c>
+      <c r="E23">
+        <v>1</v>
+      </c>
+      <c r="F23">
+        <v>0.791</v>
+      </c>
+      <c r="G23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="A24" s="1">
+        <v>22</v>
+      </c>
+      <c r="B24" t="s">
+        <v>28</v>
+      </c>
+      <c r="C24">
+        <v>0.02534628982091455</v>
+      </c>
+      <c r="D24">
+        <v>0.0258272800645682</v>
+      </c>
+      <c r="E24">
+        <v>1</v>
+      </c>
+      <c r="F24">
+        <v>0.883</v>
+      </c>
+      <c r="G24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
+      <c r="A25" s="1">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>29</v>
+      </c>
+      <c r="C25">
+        <v>0.006161084968139763</v>
+      </c>
+      <c r="D25">
+        <v>0.005897040750406338</v>
+      </c>
+      <c r="E25">
+        <v>0</v>
+      </c>
+      <c r="F25">
+        <v>0.728</v>
+      </c>
+      <c r="G25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
+      <c r="A26" s="1">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>30</v>
+      </c>
+      <c r="C26">
+        <v>0.1159371161391379</v>
+      </c>
+      <c r="D26">
+        <v>0.1156919648793491</v>
+      </c>
+      <c r="E26">
+        <v>0</v>
+      </c>
+      <c r="F26">
+        <v>0.954</v>
+      </c>
+      <c r="G26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
+      <c r="A27" s="1">
+        <v>25</v>
+      </c>
+      <c r="B27" t="s">
+        <v>31</v>
+      </c>
+      <c r="C27">
+        <v>0.006767264702440498</v>
+      </c>
+      <c r="D27">
+        <v>0.006361250120225432</v>
+      </c>
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0.667</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
+      <c r="A28" s="1">
+        <v>26</v>
+      </c>
+      <c r="B28" t="s">
+        <v>32</v>
+      </c>
+      <c r="C28">
+        <v>0.007939373806100667</v>
+      </c>
+      <c r="D28">
+        <v>0.007010645600630805</v>
+      </c>
+      <c r="E28">
+        <v>0</v>
+      </c>
+      <c r="F28">
+        <v>0.204</v>
+      </c>
+      <c r="G28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
+      <c r="A29" s="1">
+        <v>27</v>
+      </c>
+      <c r="B29" t="s">
+        <v>33</v>
+      </c>
+      <c r="C29">
+        <v>0.3189281379274712</v>
+      </c>
+      <c r="D29">
+        <v>0.3106190963375541</v>
+      </c>
+      <c r="E29">
+        <v>0</v>
+      </c>
+      <c r="F29">
+        <v>0.19</v>
+      </c>
+      <c r="G29">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
